--- a/generalDF.xlsx
+++ b/generalDF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3826" uniqueCount="390">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -918,6 +918,234 @@
   </si>
   <si>
     <t>Surgical</t>
+  </si>
+  <si>
+    <t>2025-05-29T14:04:42.713296Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T13:59:25.181231Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T13:54:45.023518Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T13:37:33.599405Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T13:34:17.749982Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T13:29:59.277213Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T13:26:46.459924Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T13:23:26.170872Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T13:18:05.529869Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T13:10:52.801015Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T13:08:45.815101Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T13:04:19.993160Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T13:01:14.442950Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:58:43.289552Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:56:41.656171Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:54:00.239278Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:50:21.257388Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:48:02.754036Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:45:27.231110Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:43:02.534709Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:40:51.752304Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:34:16.212132Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:27:46.119998Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:22:14.831756Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:19:46.329694Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:15:51.699315Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T12:10:07.852945Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T10:29:15.346347Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T07:18:44.343879Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T07:18:44.050061Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T07:18:43.645248Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T07:18:43.333800Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T07:18:42.984613Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T07:18:42.649037Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T07:18:42.280098Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T07:18:41.854775Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T07:18:41.529360Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T07:18:41.196115Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T07:18:40.417165Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T07:18:39.768451Z</t>
+  </si>
+  <si>
+    <t>2025-05-29T06:34:26.841873Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T13:57:15.008419Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T13:53:45.501974Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T13:51:35.323519Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T13:48:27.583730Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T13:46:03.987811Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T13:13:30.130098Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T13:07:18.783236Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T13:02:20.957948Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T12:58:08.034541Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T12:50:57.725155Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T12:45:09.084237Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T12:41:08.277259Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T12:37:19.994524Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T12:33:30.415196Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T11:04:46.655913Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T11:03:17.331851Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T11:01:22.949878Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T10:59:29.372603Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T10:42:06.770785Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T10:40:20.907438Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T10:22:30.010440Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T10:10:22.181788Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T10:05:11.440353Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:36.820086Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:36.419887Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:36.000353Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:35.340185Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:34.666864Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:34.280966Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:33.771608Z</t>
+  </si>
+  <si>
+    <t>2025-05-28T09:04:33.160767Z</t>
+  </si>
+  <si>
+    <t>2025-05-27T17:17:21.994464Z</t>
+  </si>
+  <si>
+    <t>2025-05-27T16:58:58.988192Z</t>
+  </si>
+  <si>
+    <t>2025-05-23T09:14:41.249283Z</t>
+  </si>
+  <si>
+    <t>2025-05-23T09:05:46.928296Z</t>
   </si>
   <si>
     <t>15-19_yrs 20-24_yrs 25-29_yrs 30-34_yrs 35-39_yrs 40-44_yrs 45-49_yrs 50_yrs</t>
@@ -963,9 +1191,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -1018,12 +1243,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1966,8 +2190,8 @@
       <c r="BU2">
         <v>0</v>
       </c>
-      <c r="BV2" s="2">
-        <v>45806.58660547796</v>
+      <c r="BV2" t="s">
+        <v>301</v>
       </c>
       <c r="BW2" t="s">
         <v>141</v>
@@ -2370,8 +2594,8 @@
       <c r="BU3">
         <v>0</v>
       </c>
-      <c r="BV3" s="2">
-        <v>45806.58293033832</v>
+      <c r="BV3" t="s">
+        <v>302</v>
       </c>
       <c r="BW3" t="s">
         <v>141</v>
@@ -2771,8 +2995,8 @@
       <c r="BU4">
         <v>0</v>
       </c>
-      <c r="BV4" s="2">
-        <v>45806.5796877722</v>
+      <c r="BV4" t="s">
+        <v>303</v>
       </c>
       <c r="BW4" t="s">
         <v>141</v>
@@ -2949,7 +3173,7 @@
         <v>145</v>
       </c>
       <c r="EK4" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:141">
@@ -3172,8 +3396,8 @@
       <c r="BU5">
         <v>0</v>
       </c>
-      <c r="BV5" s="2">
-        <v>45806.56774999311</v>
+      <c r="BV5" t="s">
+        <v>304</v>
       </c>
       <c r="BW5" t="s">
         <v>141</v>
@@ -3567,8 +3791,8 @@
       <c r="BU6">
         <v>0</v>
       </c>
-      <c r="BV6" s="2">
-        <v>45806.56548321738</v>
+      <c r="BV6" t="s">
+        <v>305</v>
       </c>
       <c r="BW6" t="s">
         <v>141</v>
@@ -3965,8 +4189,8 @@
       <c r="BU7">
         <v>0</v>
       </c>
-      <c r="BV7" s="2">
-        <v>45806.56249163441</v>
+      <c r="BV7" t="s">
+        <v>306</v>
       </c>
       <c r="BW7" t="s">
         <v>141</v>
@@ -4363,8 +4587,8 @@
       <c r="BU8">
         <v>0</v>
       </c>
-      <c r="BV8" s="2">
-        <v>45806.56025995282</v>
+      <c r="BV8" t="s">
+        <v>307</v>
       </c>
       <c r="BW8" t="s">
         <v>141</v>
@@ -4758,8 +4982,8 @@
       <c r="BU9">
         <v>0</v>
       </c>
-      <c r="BV9" s="2">
-        <v>45806.5579417925</v>
+      <c r="BV9" t="s">
+        <v>308</v>
       </c>
       <c r="BW9" t="s">
         <v>141</v>
@@ -4918,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="EF9" t="s">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="EG9">
         <v>0</v>
@@ -5153,8 +5377,8 @@
       <c r="BU10">
         <v>0</v>
       </c>
-      <c r="BV10" s="2">
-        <v>45806.55423066978</v>
+      <c r="BV10" t="s">
+        <v>309</v>
       </c>
       <c r="BW10" t="s">
         <v>141</v>
@@ -5545,8 +5769,8 @@
       <c r="BU11">
         <v>0</v>
       </c>
-      <c r="BV11" s="2">
-        <v>45806.54922223397</v>
+      <c r="BV11" t="s">
+        <v>310</v>
       </c>
       <c r="BW11" t="s">
         <v>141</v>
@@ -5937,8 +6161,8 @@
       <c r="BU12">
         <v>0</v>
       </c>
-      <c r="BV12" s="2">
-        <v>45806.5477524896</v>
+      <c r="BV12" t="s">
+        <v>311</v>
       </c>
       <c r="BW12" t="s">
         <v>141</v>
@@ -6329,8 +6553,8 @@
       <c r="BU13">
         <v>0</v>
       </c>
-      <c r="BV13" s="2">
-        <v>45806.54467584676</v>
+      <c r="BV13" t="s">
+        <v>312</v>
       </c>
       <c r="BW13" t="s">
         <v>141</v>
@@ -6721,8 +6945,8 @@
       <c r="BU14">
         <v>0</v>
       </c>
-      <c r="BV14" s="2">
-        <v>45806.54252827488</v>
+      <c r="BV14" t="s">
+        <v>313</v>
       </c>
       <c r="BW14" t="s">
         <v>141</v>
@@ -7113,8 +7337,8 @@
       <c r="BU15">
         <v>0</v>
       </c>
-      <c r="BV15" s="2">
-        <v>45806.54077881426</v>
+      <c r="BV15" t="s">
+        <v>314</v>
       </c>
       <c r="BW15" t="s">
         <v>141</v>
@@ -7505,8 +7729,8 @@
       <c r="BU16">
         <v>0</v>
       </c>
-      <c r="BV16" s="2">
-        <v>45806.5393710205</v>
+      <c r="BV16" t="s">
+        <v>315</v>
       </c>
       <c r="BW16" t="s">
         <v>141</v>
@@ -7897,8 +8121,8 @@
       <c r="BU17">
         <v>0</v>
       </c>
-      <c r="BV17" s="2">
-        <v>45806.53750276942</v>
+      <c r="BV17" t="s">
+        <v>316</v>
       </c>
       <c r="BW17" t="s">
         <v>141</v>
@@ -8289,8 +8513,8 @@
       <c r="BU18">
         <v>0</v>
       </c>
-      <c r="BV18" s="2">
-        <v>45806.5349682568</v>
+      <c r="BV18" t="s">
+        <v>317</v>
       </c>
       <c r="BW18" t="s">
         <v>141</v>
@@ -8681,8 +8905,8 @@
       <c r="BU19">
         <v>0</v>
       </c>
-      <c r="BV19" s="2">
-        <v>45806.53336520875</v>
+      <c r="BV19" t="s">
+        <v>318</v>
       </c>
       <c r="BW19" t="s">
         <v>141</v>
@@ -9073,8 +9297,8 @@
       <c r="BU20">
         <v>0</v>
       </c>
-      <c r="BV20" s="2">
-        <v>45806.53156517488</v>
+      <c r="BV20" t="s">
+        <v>319</v>
       </c>
       <c r="BW20" t="s">
         <v>141</v>
@@ -9465,8 +9689,8 @@
       <c r="BU21">
         <v>0</v>
       </c>
-      <c r="BV21" s="2">
-        <v>45806.52989044802</v>
+      <c r="BV21" t="s">
+        <v>320</v>
       </c>
       <c r="BW21" t="s">
         <v>141</v>
@@ -9857,8 +10081,8 @@
       <c r="BU22">
         <v>0</v>
       </c>
-      <c r="BV22" s="2">
-        <v>45806.52837676278</v>
+      <c r="BV22" t="s">
+        <v>321</v>
       </c>
       <c r="BW22" t="s">
         <v>141</v>
@@ -10252,8 +10476,8 @@
       <c r="BU23">
         <v>0</v>
       </c>
-      <c r="BV23" s="2">
-        <v>45806.52379875153</v>
+      <c r="BV23" t="s">
+        <v>322</v>
       </c>
       <c r="BW23" t="s">
         <v>141</v>
@@ -10421,13 +10645,13 @@
         <v>0</v>
       </c>
       <c r="EI23" t="s">
-        <v>310</v>
+        <v>386</v>
       </c>
       <c r="EJ23" t="s">
         <v>145</v>
       </c>
       <c r="EK23" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:141">
@@ -10644,8 +10868,8 @@
       <c r="BU24">
         <v>0</v>
       </c>
-      <c r="BV24" s="2">
-        <v>45806.51928379627</v>
+      <c r="BV24" t="s">
+        <v>323</v>
       </c>
       <c r="BW24" t="s">
         <v>141</v>
@@ -10813,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="EI24" t="s">
-        <v>311</v>
+        <v>387</v>
       </c>
       <c r="EJ24" t="s">
         <v>145</v>
@@ -11039,8 +11263,8 @@
       <c r="BU25">
         <v>0</v>
       </c>
-      <c r="BV25" s="2">
-        <v>45806.51544944162</v>
+      <c r="BV25" t="s">
+        <v>324</v>
       </c>
       <c r="BW25" t="s">
         <v>141</v>
@@ -11217,7 +11441,7 @@
         <v>145</v>
       </c>
       <c r="EK25" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:141">
@@ -11437,8 +11661,8 @@
       <c r="BU26">
         <v>0</v>
       </c>
-      <c r="BV26" s="2">
-        <v>45806.51373066776</v>
+      <c r="BV26" t="s">
+        <v>325</v>
       </c>
       <c r="BW26" t="s">
         <v>141</v>
@@ -11612,7 +11836,7 @@
         <v>145</v>
       </c>
       <c r="EK26" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:141">
@@ -11832,8 +12056,8 @@
       <c r="BU27">
         <v>0</v>
       </c>
-      <c r="BV27" s="2">
-        <v>45806.51101503837</v>
+      <c r="BV27" t="s">
+        <v>326</v>
       </c>
       <c r="BW27" t="s">
         <v>141</v>
@@ -12013,7 +12237,7 @@
         <v>145</v>
       </c>
       <c r="EK27" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:141">
@@ -12233,8 +12457,8 @@
       <c r="BU28">
         <v>0</v>
       </c>
-      <c r="BV28" s="2">
-        <v>45806.50703533501</v>
+      <c r="BV28" t="s">
+        <v>327</v>
       </c>
       <c r="BW28" t="s">
         <v>141</v>
@@ -12405,7 +12629,7 @@
         <v>145</v>
       </c>
       <c r="EK28" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:141">
@@ -12625,8 +12849,8 @@
       <c r="BU29">
         <v>0</v>
       </c>
-      <c r="BV29" s="2">
-        <v>45806.43698317531</v>
+      <c r="BV29" t="s">
+        <v>328</v>
       </c>
       <c r="BW29" t="s">
         <v>141</v>
@@ -12773,7 +12997,7 @@
         <v>197</v>
       </c>
       <c r="DX29" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="DY29" t="s">
         <v>164</v>
@@ -12797,7 +13021,7 @@
         <v>0</v>
       </c>
       <c r="EF29" t="s">
-        <v>307</v>
+        <v>383</v>
       </c>
       <c r="EG29">
         <v>0</v>
@@ -13032,8 +13256,8 @@
       <c r="BU30">
         <v>0</v>
       </c>
-      <c r="BV30" s="2">
-        <v>45806.30467990601</v>
+      <c r="BV30" t="s">
+        <v>329</v>
       </c>
       <c r="BW30" t="s">
         <v>141</v>
@@ -13436,8 +13660,8 @@
       <c r="BU31">
         <v>0</v>
       </c>
-      <c r="BV31" s="2">
-        <v>45806.30467650534</v>
+      <c r="BV31" t="s">
+        <v>330</v>
       </c>
       <c r="BW31" t="s">
         <v>141</v>
@@ -13834,8 +14058,8 @@
       <c r="BU32">
         <v>0</v>
       </c>
-      <c r="BV32" s="2">
-        <v>45806.30467182</v>
+      <c r="BV32" t="s">
+        <v>331</v>
       </c>
       <c r="BW32" t="s">
         <v>141</v>
@@ -14238,8 +14462,8 @@
       <c r="BU33">
         <v>0</v>
       </c>
-      <c r="BV33" s="2">
-        <v>45806.30466821528</v>
+      <c r="BV33" t="s">
+        <v>332</v>
       </c>
       <c r="BW33" t="s">
         <v>141</v>
@@ -14639,8 +14863,8 @@
       <c r="BU34">
         <v>0</v>
       </c>
-      <c r="BV34" s="2">
-        <v>45806.30466417376</v>
+      <c r="BV34" t="s">
+        <v>333</v>
       </c>
       <c r="BW34" t="s">
         <v>141</v>
@@ -15043,8 +15267,8 @@
       <c r="BU35">
         <v>0</v>
       </c>
-      <c r="BV35" s="2">
-        <v>45806.30466028978</v>
+      <c r="BV35" t="s">
+        <v>334</v>
       </c>
       <c r="BW35" t="s">
         <v>141</v>
@@ -15444,8 +15668,8 @@
       <c r="BU36">
         <v>0</v>
       </c>
-      <c r="BV36" s="2">
-        <v>45806.30465601965</v>
+      <c r="BV36" t="s">
+        <v>335</v>
       </c>
       <c r="BW36" t="s">
         <v>141</v>
@@ -15848,8 +16072,8 @@
       <c r="BU37">
         <v>0</v>
       </c>
-      <c r="BV37" s="2">
-        <v>45806.30465109694</v>
+      <c r="BV37" t="s">
+        <v>336</v>
       </c>
       <c r="BW37" t="s">
         <v>141</v>
@@ -16252,8 +16476,8 @@
       <c r="BU38">
         <v>0</v>
       </c>
-      <c r="BV38" s="2">
-        <v>45806.30464733056</v>
+      <c r="BV38" t="s">
+        <v>337</v>
       </c>
       <c r="BW38" t="s">
         <v>141</v>
@@ -16647,8 +16871,8 @@
       <c r="BU39">
         <v>0</v>
       </c>
-      <c r="BV39" s="2">
-        <v>45806.30464347355</v>
+      <c r="BV39" t="s">
+        <v>338</v>
       </c>
       <c r="BW39" t="s">
         <v>141</v>
@@ -17048,8 +17272,8 @@
       <c r="BU40">
         <v>0</v>
       </c>
-      <c r="BV40" s="2">
-        <v>45806.30463445793</v>
+      <c r="BV40" t="s">
+        <v>339</v>
       </c>
       <c r="BW40" t="s">
         <v>141</v>
@@ -17449,8 +17673,8 @@
       <c r="BU41">
         <v>0</v>
       </c>
-      <c r="BV41" s="2">
-        <v>45806.30462694966</v>
+      <c r="BV41" t="s">
+        <v>340</v>
       </c>
       <c r="BW41" t="s">
         <v>141</v>
@@ -17850,8 +18074,8 @@
       <c r="BU42">
         <v>0</v>
       </c>
-      <c r="BV42" s="2">
-        <v>45806.27392178094</v>
+      <c r="BV42" t="s">
+        <v>341</v>
       </c>
       <c r="BW42" t="s">
         <v>141</v>
@@ -18004,10 +18228,10 @@
         <v>0</v>
       </c>
       <c r="ED42" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="EE42" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="EF42" t="s">
         <v>177</v>
@@ -18245,8 +18469,8 @@
       <c r="BU43">
         <v>0</v>
       </c>
-      <c r="BV43" s="2">
-        <v>45805.58142370855</v>
+      <c r="BV43" t="s">
+        <v>342</v>
       </c>
       <c r="BW43" t="s">
         <v>141</v>
@@ -18649,8 +18873,8 @@
       <c r="BU44">
         <v>0</v>
       </c>
-      <c r="BV44" s="2">
-        <v>45805.57899886544</v>
+      <c r="BV44" t="s">
+        <v>343</v>
       </c>
       <c r="BW44" t="s">
         <v>141</v>
@@ -19053,8 +19277,8 @@
       <c r="BU45">
         <v>0</v>
       </c>
-      <c r="BV45" s="2">
-        <v>45805.57749217036</v>
+      <c r="BV45" t="s">
+        <v>344</v>
       </c>
       <c r="BW45" t="s">
         <v>141</v>
@@ -19457,8 +19681,8 @@
       <c r="BU46">
         <v>0</v>
       </c>
-      <c r="BV46" s="2">
-        <v>45805.57531925613</v>
+      <c r="BV46" t="s">
+        <v>345</v>
       </c>
       <c r="BW46" t="s">
         <v>141</v>
@@ -19861,8 +20085,8 @@
       <c r="BU47">
         <v>0</v>
       </c>
-      <c r="BV47" s="2">
-        <v>45805.57365726633</v>
+      <c r="BV47" t="s">
+        <v>346</v>
       </c>
       <c r="BW47" t="s">
         <v>141</v>
@@ -20048,7 +20272,7 @@
         <v>145</v>
       </c>
       <c r="EK47" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:141">
@@ -20268,8 +20492,8 @@
       <c r="BU48">
         <v>0</v>
       </c>
-      <c r="BV48" s="2">
-        <v>45805.55104317243</v>
+      <c r="BV48" t="s">
+        <v>347</v>
       </c>
       <c r="BW48" t="s">
         <v>141</v>
@@ -20452,7 +20676,7 @@
         <v>145</v>
       </c>
       <c r="EK48" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:141">
@@ -20672,8 +20896,8 @@
       <c r="BU49">
         <v>0</v>
       </c>
-      <c r="BV49" s="2">
-        <v>45805.54674517634</v>
+      <c r="BV49" t="s">
+        <v>348</v>
       </c>
       <c r="BW49" t="s">
         <v>141</v>
@@ -21076,8 +21300,8 @@
       <c r="BU50">
         <v>0</v>
       </c>
-      <c r="BV50" s="2">
-        <v>45805.5432981244</v>
+      <c r="BV50" t="s">
+        <v>349</v>
       </c>
       <c r="BW50" t="s">
         <v>141</v>
@@ -21480,8 +21704,8 @@
       <c r="BU51">
         <v>0</v>
       </c>
-      <c r="BV51" s="2">
-        <v>45805.54037077015</v>
+      <c r="BV51" t="s">
+        <v>350</v>
       </c>
       <c r="BW51" t="s">
         <v>141</v>
@@ -21667,7 +21891,7 @@
         <v>145</v>
       </c>
       <c r="EK51" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:141">
@@ -21887,8 +22111,8 @@
       <c r="BU52">
         <v>0</v>
       </c>
-      <c r="BV52" s="2">
-        <v>45805.53539033744</v>
+      <c r="BV52" t="s">
+        <v>351</v>
       </c>
       <c r="BW52" t="s">
         <v>141</v>
@@ -22291,8 +22515,8 @@
       <c r="BU53">
         <v>0</v>
       </c>
-      <c r="BV53" s="2">
-        <v>45805.53135514163</v>
+      <c r="BV53" t="s">
+        <v>352</v>
       </c>
       <c r="BW53" t="s">
         <v>141</v>
@@ -22692,8 +22916,8 @@
       <c r="BU54">
         <v>0</v>
       </c>
-      <c r="BV54" s="2">
-        <v>45805.52856802383</v>
+      <c r="BV54" t="s">
+        <v>353</v>
       </c>
       <c r="BW54" t="s">
         <v>141</v>
@@ -23093,8 +23317,8 @@
       <c r="BU55">
         <v>0</v>
       </c>
-      <c r="BV55" s="2">
-        <v>45805.52592586254</v>
+      <c r="BV55" t="s">
+        <v>354</v>
       </c>
       <c r="BW55" t="s">
         <v>141</v>
@@ -23494,8 +23718,8 @@
       <c r="BU56">
         <v>0</v>
       </c>
-      <c r="BV56" s="2">
-        <v>45805.5232686944</v>
+      <c r="BV56" t="s">
+        <v>355</v>
       </c>
       <c r="BW56" t="s">
         <v>141</v>
@@ -23504,7 +23728,7 @@
         <v>197</v>
       </c>
       <c r="BY56" t="s">
-        <v>301</v>
+        <v>377</v>
       </c>
       <c r="BZ56">
         <v>0</v>
@@ -23889,8 +24113,8 @@
       <c r="BU57">
         <v>0</v>
       </c>
-      <c r="BV57" s="2">
-        <v>45805.4616511101</v>
+      <c r="BV57" t="s">
+        <v>356</v>
       </c>
       <c r="BW57" t="s">
         <v>141</v>
@@ -24314,8 +24538,8 @@
       <c r="BU58">
         <v>0</v>
       </c>
-      <c r="BV58" s="2">
-        <v>45805.46061726679</v>
+      <c r="BV58" t="s">
+        <v>357</v>
       </c>
       <c r="BW58" t="s">
         <v>141</v>
@@ -24736,8 +24960,8 @@
       <c r="BU59">
         <v>0</v>
       </c>
-      <c r="BV59" s="2">
-        <v>45805.45929340136</v>
+      <c r="BV59" t="s">
+        <v>358</v>
       </c>
       <c r="BW59" t="s">
         <v>141</v>
@@ -25158,8 +25382,8 @@
       <c r="BU60">
         <v>0</v>
       </c>
-      <c r="BV60" s="2">
-        <v>45805.45797884957</v>
+      <c r="BV60" t="s">
+        <v>359</v>
       </c>
       <c r="BW60" t="s">
         <v>141</v>
@@ -25580,8 +25804,8 @@
       <c r="BU61">
         <v>0</v>
       </c>
-      <c r="BV61" s="2">
-        <v>45805.4459116989</v>
+      <c r="BV61" t="s">
+        <v>360</v>
       </c>
       <c r="BW61" t="s">
         <v>141</v>
@@ -25981,8 +26205,8 @@
       <c r="BU62">
         <v>0</v>
       </c>
-      <c r="BV62" s="2">
-        <v>45805.44468642868</v>
+      <c r="BV62" t="s">
+        <v>361</v>
       </c>
       <c r="BW62" t="s">
         <v>141</v>
@@ -26388,8 +26612,8 @@
       <c r="BU63">
         <v>0</v>
       </c>
-      <c r="BV63" s="2">
-        <v>45805.4322917875</v>
+      <c r="BV63" t="s">
+        <v>362</v>
       </c>
       <c r="BW63" t="s">
         <v>141</v>
@@ -26798,8 +27022,8 @@
       <c r="BU64">
         <v>0</v>
       </c>
-      <c r="BV64" s="2">
-        <v>45805.42386784477</v>
+      <c r="BV64" t="s">
+        <v>363</v>
       </c>
       <c r="BW64" t="s">
         <v>141</v>
@@ -27205,8 +27429,8 @@
       <c r="BU65">
         <v>0</v>
       </c>
-      <c r="BV65" s="2">
-        <v>45805.42027130038</v>
+      <c r="BV65" t="s">
+        <v>364</v>
       </c>
       <c r="BW65" t="s">
         <v>141</v>
@@ -27215,7 +27439,7 @@
         <v>197</v>
       </c>
       <c r="BY65" t="s">
-        <v>301</v>
+        <v>377</v>
       </c>
       <c r="BZ65">
         <v>0</v>
@@ -27606,8 +27830,8 @@
       <c r="BU66">
         <v>0</v>
       </c>
-      <c r="BV66" s="2">
-        <v>45805.37820393618</v>
+      <c r="BV66" t="s">
+        <v>365</v>
       </c>
       <c r="BW66" t="s">
         <v>141</v>
@@ -28010,8 +28234,8 @@
       <c r="BU67">
         <v>0</v>
       </c>
-      <c r="BV67" s="2">
-        <v>45805.37819930425</v>
+      <c r="BV67" t="s">
+        <v>366</v>
       </c>
       <c r="BW67" t="s">
         <v>141</v>
@@ -28414,8 +28638,8 @@
       <c r="BU68">
         <v>0</v>
       </c>
-      <c r="BV68" s="2">
-        <v>45805.37819444853</v>
+      <c r="BV68" t="s">
+        <v>367</v>
       </c>
       <c r="BW68" t="s">
         <v>141</v>
@@ -28604,7 +28828,7 @@
         <v>145</v>
       </c>
       <c r="EK68" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" spans="1:141">
@@ -28824,8 +29048,8 @@
       <c r="BU69">
         <v>0</v>
       </c>
-      <c r="BV69" s="2">
-        <v>45805.3781868077</v>
+      <c r="BV69" t="s">
+        <v>368</v>
       </c>
       <c r="BW69" t="s">
         <v>141</v>
@@ -29008,7 +29232,7 @@
         <v>145</v>
       </c>
       <c r="EK69" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
     </row>
     <row r="70" spans="1:141">
@@ -29228,8 +29452,8 @@
       <c r="BU70">
         <v>0</v>
       </c>
-      <c r="BV70" s="2">
-        <v>45805.37817901463</v>
+      <c r="BV70" t="s">
+        <v>369</v>
       </c>
       <c r="BW70" t="s">
         <v>141</v>
@@ -29415,7 +29639,7 @@
         <v>145</v>
       </c>
       <c r="EK70" t="s">
-        <v>312</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="1:141">
@@ -29632,8 +29856,8 @@
       <c r="BU71">
         <v>0</v>
       </c>
-      <c r="BV71" s="2">
-        <v>45805.37817454822</v>
+      <c r="BV71" t="s">
+        <v>370</v>
       </c>
       <c r="BW71" t="s">
         <v>141</v>
@@ -29642,7 +29866,7 @@
         <v>197</v>
       </c>
       <c r="BY71" t="s">
-        <v>301</v>
+        <v>377</v>
       </c>
       <c r="BZ71">
         <v>0</v>
@@ -29792,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="EF71" t="s">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="EG71" t="s">
         <v>197</v>
@@ -29804,7 +30028,7 @@
         <v>145</v>
       </c>
       <c r="EK71" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
     </row>
     <row r="72" spans="1:141">
@@ -30024,8 +30248,8 @@
       <c r="BU72">
         <v>0</v>
       </c>
-      <c r="BV72" s="2">
-        <v>45805.37816865287</v>
+      <c r="BV72" t="s">
+        <v>371</v>
       </c>
       <c r="BW72" t="s">
         <v>141</v>
@@ -30446,8 +30670,8 @@
       <c r="BU73">
         <v>0</v>
       </c>
-      <c r="BV73" s="2">
-        <v>45805.37816158295</v>
+      <c r="BV73" t="s">
+        <v>372</v>
       </c>
       <c r="BW73" t="s">
         <v>141</v>
@@ -30582,7 +30806,7 @@
         <v>197</v>
       </c>
       <c r="DS73" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="DT73" t="s">
         <v>185</v>
@@ -30633,7 +30857,7 @@
         <v>145</v>
       </c>
       <c r="EK73" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" spans="1:141">
@@ -30853,8 +31077,8 @@
       <c r="BU74">
         <v>0</v>
       </c>
-      <c r="BV74" s="2">
-        <v>45804.72039345445</v>
+      <c r="BV74" t="s">
+        <v>373</v>
       </c>
       <c r="BW74" t="s">
         <v>141</v>
@@ -31001,7 +31225,7 @@
         <v>197</v>
       </c>
       <c r="DX74" t="s">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="DY74" t="s">
         <v>276</v>
@@ -31019,13 +31243,13 @@
         <v>0</v>
       </c>
       <c r="ED74" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="EE74" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="EF74" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="EG74" t="s">
         <v>276</v>
@@ -31260,8 +31484,8 @@
       <c r="BU75">
         <v>0</v>
       </c>
-      <c r="BV75" s="2">
-        <v>45804.70762717815</v>
+      <c r="BV75" t="s">
+        <v>374</v>
       </c>
       <c r="BW75" t="s">
         <v>141</v>
@@ -31429,7 +31653,7 @@
         <v>0</v>
       </c>
       <c r="EF75" t="s">
-        <v>309</v>
+        <v>385</v>
       </c>
       <c r="EG75" t="s">
         <v>197</v>
@@ -31664,8 +31888,8 @@
       <c r="BU76">
         <v>0</v>
       </c>
-      <c r="BV76" s="2">
-        <v>45800.38519964448</v>
+      <c r="BV76" t="s">
+        <v>375</v>
       </c>
       <c r="BW76" t="s">
         <v>141</v>
@@ -32074,8 +32298,8 @@
       <c r="BU77">
         <v>0</v>
       </c>
-      <c r="BV77" s="2">
-        <v>45800.37901537379</v>
+      <c r="BV77" t="s">
+        <v>376</v>
       </c>
       <c r="BW77" t="s">
         <v>141</v>
@@ -32249,7 +32473,7 @@
         <v>0</v>
       </c>
       <c r="EF77" t="s">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="EG77" t="s">
         <v>197</v>
@@ -32264,7 +32488,7 @@
         <v>145</v>
       </c>
       <c r="EK77" t="s">
-        <v>313</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
